--- a/TestScenarioUjianMingguan6.xlsx
+++ b/TestScenarioUjianMingguan6.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bootcamp Juara Coding\exam\Ujian Ke 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB1F2D1-F96B-4D04-B1EB-42A1C47B3EF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37EA13B-FA08-4163-9036-7188BF1D8995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7751A9-7589-4072-9645-2F42084761C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hotels" sheetId="2" r:id="rId1"/>
+    <sheet name="Shop" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -502,9 +502,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,6 +510,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,26 +847,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -913,7 +913,7 @@
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="2"/>
@@ -938,7 +938,7 @@
       <c r="F6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="2"/>
@@ -951,19 +951,19 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="2"/>
@@ -976,19 +976,19 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="2"/>
@@ -1001,19 +1001,19 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="2"/>
@@ -1026,19 +1026,19 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="2"/>
@@ -1053,13 +1053,13 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="2"/>
@@ -1074,13 +1074,13 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="2"/>
@@ -1095,13 +1095,13 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="2"/>
@@ -1116,13 +1116,13 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="2"/>
@@ -1141,13 +1141,13 @@
       <c r="D15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="2"/>
@@ -1166,13 +1166,13 @@
       <c r="D16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="2"/>
@@ -1191,13 +1191,13 @@
       <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="2"/>
@@ -1210,19 +1210,19 @@
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="2"/>
@@ -1237,13 +1237,13 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="2"/>
@@ -1262,13 +1262,13 @@
       <c r="D20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="2"/>
@@ -1287,13 +1287,13 @@
       <c r="D21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="2"/>
@@ -1318,7 +1318,7 @@
       <c r="F22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="2"/>
@@ -1343,7 +1343,7 @@
       <c r="F23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="2"/>
@@ -1368,7 +1368,7 @@
       <c r="F24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="2"/>
@@ -1393,7 +1393,7 @@
       <c r="F25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="2"/>
@@ -1418,7 +1418,7 @@
       <c r="F26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="2"/>
@@ -1443,7 +1443,7 @@
       <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="2"/>
@@ -1468,7 +1468,7 @@
       <c r="F28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="2"/>
@@ -1493,7 +1493,7 @@
       <c r="F29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="2"/>
